--- a/sputnik/personal/uch/uch101.xlsx
+++ b/sputnik/personal/uch/uch101.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="9120"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Оплата членского взноса</t>
   </si>
   <si>
@@ -46,16 +43,25 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №101</t>
+  </si>
+  <si>
+    <t>Аванс членского взноса 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +73,13 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -163,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -195,7 +208,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -256,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,10 +308,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,7 +342,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -499,17 +517,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -518,12 +536,14 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -531,130 +551,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="12">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6">
         <v>10537.45</v>
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>10537.45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1">
       <c r="A5" s="13">
         <v>43609</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1">
       <c r="A6" s="13">
         <v>43586</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="8">
         <v>10387.85</v>
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="13">
         <v>43649</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="13">
         <v>43702</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="11">
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="13">
         <v>43733</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="11">
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="13">
         <v>43794</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="11">
         <v>2387.85</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+    <row r="11" spans="1:4">
+      <c r="A11" s="16">
         <v>43882</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="11">
+      <c r="B11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -662,12 +679,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -676,12 +693,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch101.xlsx
+++ b/sputnik/personal/uch/uch101.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="9120"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -57,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,9 +308,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,6 +343,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -517,17 +519,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -536,8 +538,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
@@ -551,7 +553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>43221</v>
       </c>
@@ -563,7 +565,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -575,7 +577,7 @@
         <v>10537.45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>43609</v>
       </c>
@@ -587,7 +589,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43586</v>
       </c>
@@ -599,7 +601,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43649</v>
       </c>
@@ -611,7 +613,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43702</v>
       </c>
@@ -623,7 +625,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43733</v>
       </c>
@@ -635,7 +637,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43794</v>
       </c>
@@ -647,7 +649,7 @@
         <v>2387.85</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>43882</v>
       </c>
@@ -659,13 +661,19 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>43916</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -679,12 +687,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -693,12 +701,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch101.xlsx
+++ b/sputnik/personal/uch/uch101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -526,7 +526,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D10" sqref="D5:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -674,10 +674,16 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="16">
+        <v>43944</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch101.xlsx
+++ b/sputnik/personal/uch/uch101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -523,10 +523,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D5:D10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -682,6 +682,18 @@
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>43983</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18">
         <v>1000</v>
       </c>
     </row>

--- a/sputnik/personal/uch/uch101.xlsx
+++ b/sputnik/personal/uch/uch101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Аванс членского взноса 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021(с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -216,6 +219,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -523,10 +527,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -686,14 +690,38 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="19">
+        <v>43952</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11">
+        <v>11687.5</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
         <v>43983</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18">
+      <c r="C15" s="17"/>
+      <c r="D15" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>44015</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18">
         <v>1000</v>
       </c>
     </row>

--- a/sputnik/personal/uch/uch101.xlsx
+++ b/sputnik/personal/uch/uch101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021(с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -88,7 +91,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -214,12 +223,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -527,10 +538,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -693,20 +704,20 @@
       <c r="A14" s="19">
         <v>43952</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="21">
         <v>11687.5</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>43983</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="18">
@@ -718,12 +729,60 @@
         <v>44015</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="18">
         <v>1000</v>
       </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>44070</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch101.xlsx
+++ b/sputnik/personal/uch/uch101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -91,7 +91,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +110,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -188,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -208,9 +214,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -231,6 +234,11 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -541,7 +549,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D18" sqref="D11:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -555,10 +563,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -569,7 +577,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -581,7 +589,7 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -593,166 +601,172 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="10">
         <v>43609</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="9">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20">
         <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="10">
         <v>43586</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="21">
         <v>10387.85</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="10">
         <v>43649</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10">
+      <c r="C7" s="21"/>
+      <c r="D7" s="22">
         <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="10">
         <v>43702</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="11">
+      <c r="C8" s="21"/>
+      <c r="D8" s="23">
         <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="10">
         <v>43733</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="11">
+      <c r="C9" s="21"/>
+      <c r="D9" s="23">
         <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="10">
         <v>43794</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="11">
+      <c r="C10" s="21"/>
+      <c r="D10" s="23">
         <v>2387.85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="13">
         <v>43882</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18">
+      <c r="C11" s="14"/>
+      <c r="D11" s="15">
         <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="13">
         <v>43916</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18">
+      <c r="C12" s="14"/>
+      <c r="D12" s="15">
         <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="13">
         <v>43944</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="16">
         <v>43952</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>11687.5</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="13">
         <v>43983</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18">
+      <c r="C15" s="14"/>
+      <c r="D15" s="15">
         <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="13">
         <v>44015</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18">
+      <c r="C16" s="14"/>
+      <c r="D16" s="15">
         <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="16">
         <v>44070</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="18">
+      <c r="C17" s="17"/>
+      <c r="D17" s="15">
         <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="16">
+        <v>44098</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="15">
+        <v>2000</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>

--- a/sputnik/personal/uch/uch101.xlsx
+++ b/sputnik/personal/uch/uch101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -549,7 +549,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D11:D18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -769,10 +769,16 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="16">
+        <v>44127</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="15">
+        <v>2687.5</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>

--- a/sputnik/personal/uch/uch101.xlsx
+++ b/sputnik/personal/uch/uch101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve"> членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> членский взнос 2021/2022</t>
   </si>
 </sst>
 </file>
@@ -67,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +93,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +125,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -194,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -239,6 +254,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -549,7 +567,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -781,16 +799,28 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="24">
+        <v>44284</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26">
+        <v>1000</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="24">
+        <v>44315</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26">
+        <v>1000</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>

--- a/sputnik/personal/uch/uch101.xlsx
+++ b/sputnik/personal/uch/uch101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t xml:space="preserve"> членский взнос 2021/2022</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -209,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -257,6 +260,7 @@
     <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -566,8 +570,8 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -823,15 +827,27 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="A22" s="24">
+        <v>44342</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26">
+        <v>1000</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="27">
+        <v>44317</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="8">
+        <v>12463.55</v>
+      </c>
       <c r="D23" s="8"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch101.xlsx
+++ b/sputnik/personal/uch/uch101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -212,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -261,6 +261,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -568,10 +569,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -845,10 +846,58 @@
       <c r="B23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="28">
         <v>12463.55</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>44375</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
+        <v>44403</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch101.xlsx
+++ b/sputnik/personal/uch/uch101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -572,7 +572,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -876,10 +876,16 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="27">
+        <v>44440</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="D26" s="28">
+        <v>1000</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>

--- a/sputnik/personal/uch/uch101.xlsx
+++ b/sputnik/personal/uch/uch101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -572,7 +572,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -888,10 +888,16 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="27">
+        <v>44497</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="D27" s="28">
+        <v>1000</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>

--- a/sputnik/personal/uch/uch101.xlsx
+++ b/sputnik/personal/uch/uch101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -572,7 +572,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -900,10 +900,16 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="27">
+        <v>44526</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="D28" s="28">
+        <v>2000</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
